--- a/Assets/Editor/EmailDataExample.xlsx
+++ b/Assets/Editor/EmailDataExample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\GitHub\GonePhishing\GonePhishing\Assets\Editor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDesign\Programming 3\DesignWeek\RealBat\GonePhishing\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73550F24-A15B-4AF4-9998-FC65B3BE6330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9138C3E-7B8D-4CD8-AA1B-5A235009E599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{3A1DEF22-8015-43E6-8B07-6E12E7B783C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A1DEF22-8015-43E6-8B07-6E12E7B783C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="162">
   <si>
     <t>Sender</t>
   </si>
@@ -96,12 +96,6 @@
     <t>TooGood</t>
   </si>
   <si>
-    <t>Routine IT</t>
-  </si>
-  <si>
-    <t>Defrag</t>
-  </si>
-  <si>
     <t>Hello contestant,</t>
   </si>
   <si>
@@ -120,12 +114,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>You've Lost lol</t>
-  </si>
-  <si>
-    <t>You've lost!</t>
-  </si>
-  <si>
     <t>We hope this finds you at a good time</t>
   </si>
   <si>
@@ -195,24 +183,9 @@
     <t>The government used a mind ray and made me forget my password!</t>
   </si>
   <si>
-    <t>Hi</t>
-  </si>
-  <si>
     <t>Hello</t>
   </si>
   <si>
-    <t>lol</t>
-  </si>
-  <si>
-    <t>yep</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>good talk</t>
-  </si>
-  <si>
     <t>Thanks</t>
   </si>
   <si>
@@ -240,9 +213,6 @@
     <t>IwishIwereIrish@booze.net</t>
   </si>
   <si>
-    <t xml:space="preserve">I talked with Q2 and </t>
-  </si>
-  <si>
     <t>Doe</t>
   </si>
   <si>
@@ -283,15 +253,6 @@
   </si>
   <si>
     <t>First Name</t>
-  </si>
-  <si>
-    <t>We've won</t>
-  </si>
-  <si>
-    <t>you lost - Q1</t>
-  </si>
-  <si>
-    <t>TI - Q3</t>
   </si>
   <si>
     <t>Cautious as always,
@@ -434,6 +395,124 @@
   </si>
   <si>
     <t>MoonOverseer </t>
+  </si>
+  <si>
+    <t>My computer signed me out and I can't get back in!</t>
+  </si>
+  <si>
+    <t>Lazy Worker</t>
+  </si>
+  <si>
+    <t>Sick of R2's crap!</t>
+  </si>
+  <si>
+    <t>I'm DONE!</t>
+  </si>
+  <si>
+    <t>P1,</t>
+  </si>
+  <si>
+    <t>Hey,</t>
+  </si>
+  <si>
+    <t>Have you heard from Q2 lately?</t>
+  </si>
+  <si>
+    <t>Just need someone to vent to about Q2.</t>
+  </si>
+  <si>
+    <t>They were supposed to send me fixes for the space coffee machine 2 weeks ago!</t>
+  </si>
+  <si>
+    <t>Reach out to them when you can and tell them to fix this ASAP!!!</t>
+  </si>
+  <si>
+    <t>I know you work close to them, so go see what the hell is going on what them.</t>
+  </si>
+  <si>
+    <t>They've been blaring music non-stop for the past 3 hours!</t>
+  </si>
+  <si>
+    <t>They just stole my BAGUETTE from the company break room! THE NERVE!</t>
+  </si>
+  <si>
+    <t>Tell them to fix this, or else…</t>
+  </si>
+  <si>
+    <t>R2's biggest hater.</t>
+  </si>
+  <si>
+    <t>This is the last straw!</t>
+  </si>
+  <si>
+    <t>R2 is pissing me off!</t>
+  </si>
+  <si>
+    <t>I owe you one,
+- Q1</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Real Issue</t>
+  </si>
+  <si>
+    <t>Tech Fixer</t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>Fixer</t>
+  </si>
+  <si>
+    <t>Important Notice!</t>
+  </si>
+  <si>
+    <t>Sensitive</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Robert Houston</t>
+  </si>
+  <si>
+    <t>Rhouston@ISDIT.spa</t>
+  </si>
+  <si>
+    <t>Fixer@ISDIT.spa</t>
+  </si>
+  <si>
+    <t>We've noticed some suspicious activity on your account.</t>
+  </si>
+  <si>
+    <t>Because of this, your login credientials have been suspended.</t>
+  </si>
+  <si>
+    <t>Click "this link" to resolve the issue.</t>
+  </si>
+  <si>
+    <t>IT - Q3</t>
+  </si>
+  <si>
+    <t>WARNING!</t>
+  </si>
+  <si>
+    <t>Our systems have noticed that your account was recently hacked.</t>
+  </si>
+  <si>
+    <t>Henceforth, you will not be able to use your company credentials.</t>
+  </si>
+  <si>
+    <t>If you believe this is a mistake, "click here" to file a report.</t>
+  </si>
+  <si>
+    <t>Please "click here" to verify your profile.</t>
   </si>
 </sst>
 </file>
@@ -531,8 +610,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EED68A84-639C-4CCF-BEA7-16BF799C859E}" name="Senders" displayName="Senders" ref="B5:F14" totalsRowShown="0">
-  <autoFilter ref="B5:F14" xr:uid="{EED68A84-639C-4CCF-BEA7-16BF799C859E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EED68A84-639C-4CCF-BEA7-16BF799C859E}" name="Senders" displayName="Senders" ref="B5:F16" totalsRowShown="0">
+  <autoFilter ref="B5:F16" xr:uid="{EED68A84-639C-4CCF-BEA7-16BF799C859E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{AC7F5C9F-4183-4E6F-ADFC-23FE913F4713}" name="Name"/>
     <tableColumn id="5" xr3:uid="{F7DC21DB-8807-4833-A298-3D1BCDE6C415}" name="First Name"/>
@@ -545,8 +624,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B498BD85-725D-46E1-BBB2-1D9655163C90}" name="Messages" displayName="Messages" ref="H5:Q26" totalsRowShown="0">
-  <autoFilter ref="H5:Q26" xr:uid="{B498BD85-725D-46E1-BBB2-1D9655163C90}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B498BD85-725D-46E1-BBB2-1D9655163C90}" name="Messages" displayName="Messages" ref="H5:Q30" totalsRowShown="0">
+  <autoFilter ref="H5:Q30" xr:uid="{B498BD85-725D-46E1-BBB2-1D9655163C90}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -575,9 +654,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -615,7 +694,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -721,7 +800,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -863,7 +942,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -871,26 +950,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4422103-5E59-4D36-B01E-BBBBED35EAD4}">
-  <dimension ref="B4:Q24"/>
+  <dimension ref="B4:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="8" max="10" width="14.5546875" customWidth="1"/>
-    <col min="11" max="11" width="23.5546875" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" customWidth="1"/>
-    <col min="13" max="13" width="20.44140625" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" customWidth="1"/>
-    <col min="17" max="17" width="12.109375" customWidth="1"/>
+    <col min="2" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="8" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -902,15 +981,15 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
@@ -949,15 +1028,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -978,33 +1057,33 @@
         <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" t="s">
         <v>63</v>
       </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" t="s">
-        <v>73</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
         <v>5</v>
@@ -1013,453 +1092,518 @@
         <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" t="s">
-        <v>134</v>
-      </c>
-      <c r="K8" t="s">
-        <v>91</v>
-      </c>
-      <c r="L8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" t="s">
-        <v>90</v>
-      </c>
-      <c r="O8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F9" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s">
         <v>20</v>
       </c>
       <c r="L9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" t="s">
-        <v>57</v>
-      </c>
-      <c r="N10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>58</v>
       </c>
-      <c r="O10" t="s">
-        <v>59</v>
-      </c>
-      <c r="P10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>67</v>
-      </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
       </c>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" t="s">
-        <v>56</v>
-      </c>
-      <c r="M11" t="s">
-        <v>58</v>
-      </c>
-      <c r="N11" t="s">
-        <v>60</v>
-      </c>
-      <c r="O11" t="s">
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="P11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>142</v>
+      </c>
+      <c r="I12" t="s">
+        <v>147</v>
       </c>
       <c r="J12" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" t="s">
+        <v>153</v>
+      </c>
+      <c r="N12" t="s">
+        <v>154</v>
+      </c>
+      <c r="O12" t="s">
+        <v>155</v>
+      </c>
+      <c r="P12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>56</v>
       </c>
-      <c r="M12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N12" t="s">
-        <v>60</v>
-      </c>
-      <c r="O12" t="s">
-        <v>61</v>
-      </c>
-      <c r="P12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>157</v>
+      </c>
+      <c r="M13" t="s">
+        <v>158</v>
+      </c>
+      <c r="N13" t="s">
+        <v>159</v>
+      </c>
+      <c r="O13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E15" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="O14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J15" t="s">
         <v>5</v>
       </c>
       <c r="K15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" t="s">
         <v>45</v>
       </c>
-      <c r="L15" t="s">
+      <c r="P15" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
+      <c r="K17" t="s">
         <v>46</v>
       </c>
-      <c r="M15" t="s">
-        <v>47</v>
-      </c>
-      <c r="N15" t="s">
-        <v>48</v>
-      </c>
-      <c r="O15" t="s">
-        <v>49</v>
-      </c>
-      <c r="P15" s="3" t="s">
+      <c r="M17" t="s">
+        <v>123</v>
+      </c>
+      <c r="N17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>125</v>
+      </c>
+      <c r="L18" t="s">
+        <v>127</v>
+      </c>
+      <c r="M18" t="s">
+        <v>129</v>
+      </c>
+      <c r="N18" t="s">
+        <v>131</v>
+      </c>
+      <c r="O18" t="s">
+        <v>132</v>
+      </c>
+      <c r="P18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="5:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>126</v>
+      </c>
+      <c r="L19" t="s">
+        <v>128</v>
+      </c>
+      <c r="M19" t="s">
+        <v>130</v>
+      </c>
+      <c r="N19" t="s">
+        <v>134</v>
+      </c>
+      <c r="O19" t="s">
+        <v>133</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="5:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>138</v>
+      </c>
+      <c r="M20" t="s">
+        <v>139</v>
+      </c>
+      <c r="N20" t="s">
+        <v>135</v>
+      </c>
+      <c r="O20" t="s">
+        <v>136</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" t="s">
+        <v>52</v>
+      </c>
+      <c r="M23" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" t="s">
+        <v>52</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" t="s">
+        <v>121</v>
+      </c>
+      <c r="K24" t="s">
+        <v>85</v>
+      </c>
+      <c r="L24" t="s">
+        <v>86</v>
+      </c>
+      <c r="M24" t="s">
+        <v>87</v>
+      </c>
+      <c r="N24" t="s">
+        <v>88</v>
+      </c>
+      <c r="O24" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="K16" t="s">
+      <c r="P24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
         <v>92</v>
       </c>
-      <c r="L16" t="s">
-        <v>51</v>
-      </c>
-      <c r="M16" t="s">
-        <v>53</v>
-      </c>
-      <c r="N16" t="s">
-        <v>52</v>
-      </c>
-      <c r="O16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="8:16" x14ac:dyDescent="0.3">
-      <c r="K17" t="s">
-        <v>50</v>
-      </c>
-      <c r="M17" t="s">
-        <v>71</v>
-      </c>
-      <c r="N17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="8:16" x14ac:dyDescent="0.3">
-      <c r="H19" t="s">
-        <v>57</v>
-      </c>
-      <c r="J19" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" t="s">
-        <v>57</v>
-      </c>
-      <c r="M19" t="s">
-        <v>57</v>
-      </c>
-      <c r="N19" t="s">
-        <v>57</v>
-      </c>
-      <c r="O19" t="s">
-        <v>57</v>
-      </c>
-      <c r="P19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="8:16" x14ac:dyDescent="0.3">
-      <c r="H20" t="s">
+      <c r="J25" t="s">
+        <v>119</v>
+      </c>
+      <c r="K25" t="s">
+        <v>96</v>
+      </c>
+      <c r="L25" t="s">
         <v>97</v>
       </c>
-      <c r="J20" t="s">
-        <v>134</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="M25" t="s">
         <v>98</v>
       </c>
-      <c r="L20" t="s">
+      <c r="N25" t="s">
         <v>99</v>
       </c>
-      <c r="M20" t="s">
+      <c r="O25" t="s">
         <v>100</v>
       </c>
-      <c r="N20" t="s">
+      <c r="P25" t="s">
         <v>101</v>
       </c>
-      <c r="O20" t="s">
-        <v>102</v>
-      </c>
-      <c r="P20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="8:16" x14ac:dyDescent="0.3">
-      <c r="H21" t="s">
-        <v>105</v>
-      </c>
-      <c r="J21" t="s">
-        <v>132</v>
-      </c>
-      <c r="K21" t="s">
+    </row>
+    <row r="26" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>106</v>
+      </c>
+      <c r="J26" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" t="s">
+        <v>107</v>
+      </c>
+      <c r="L26" t="s">
+        <v>108</v>
+      </c>
+      <c r="M26" t="s">
         <v>109</v>
       </c>
-      <c r="L21" t="s">
+      <c r="N26" t="s">
         <v>110</v>
       </c>
-      <c r="M21" t="s">
+      <c r="O26" t="s">
         <v>111</v>
       </c>
-      <c r="N21" t="s">
+      <c r="P26" t="s">
         <v>112</v>
       </c>
-      <c r="O21" t="s">
+    </row>
+    <row r="27" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
         <v>113</v>
       </c>
-      <c r="P21" t="s">
+      <c r="J27" t="s">
+        <v>122</v>
+      </c>
+      <c r="K27" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="22" spans="8:16" x14ac:dyDescent="0.3">
-      <c r="H22" t="s">
-        <v>119</v>
-      </c>
-      <c r="J22" t="s">
-        <v>133</v>
-      </c>
-      <c r="K22" t="s">
-        <v>120</v>
-      </c>
-      <c r="L22" t="s">
-        <v>121</v>
-      </c>
-      <c r="M22" t="s">
-        <v>122</v>
-      </c>
-      <c r="N22" t="s">
-        <v>123</v>
-      </c>
-      <c r="O22" t="s">
-        <v>124</v>
-      </c>
-      <c r="P22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="8:16" x14ac:dyDescent="0.3">
-      <c r="H23" t="s">
-        <v>126</v>
-      </c>
-      <c r="J23" t="s">
-        <v>135</v>
-      </c>
-      <c r="K23" t="s">
-        <v>127</v>
-      </c>
-      <c r="L23" t="s">
-        <v>128</v>
-      </c>
-      <c r="M23" t="s">
-        <v>129</v>
-      </c>
-      <c r="N23" t="s">
-        <v>130</v>
-      </c>
-      <c r="O23" t="s">
-        <v>131</v>
-      </c>
-      <c r="P23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="8:16" x14ac:dyDescent="0.3">
-      <c r="P24" t="s">
-        <v>104</v>
+      <c r="L27" t="s">
+        <v>115</v>
+      </c>
+      <c r="M27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O27" t="s">
+        <v>118</v>
+      </c>
+      <c r="P27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H6:Q26">
+  <conditionalFormatting sqref="H6:Q30">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$H6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27:Q29">
+  <conditionalFormatting sqref="H31:Q33">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$H27&lt;&gt;""</formula>
+      <formula>$H31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" xr:uid="{49BFF67A-867C-4B44-971E-C4407E164B8C}"/>
-    <hyperlink ref="E14" r:id="rId2" xr:uid="{1349B125-30C6-4728-8A05-C414E2C31FF6}"/>
+    <hyperlink ref="E16" r:id="rId2" xr:uid="{1349B125-30C6-4728-8A05-C414E2C31FF6}"/>
     <hyperlink ref="E7" r:id="rId3" xr:uid="{773E95FE-04EC-4B67-BA4F-B90F3432756B}"/>
     <hyperlink ref="E13" r:id="rId4" xr:uid="{5224DA6B-9A82-4C11-A053-7000160197E7}"/>
     <hyperlink ref="E11" r:id="rId5" xr:uid="{7E388720-2FFB-4FCD-932A-F54833695C8F}"/>
     <hyperlink ref="E12" r:id="rId6" xr:uid="{A248BAB8-B78B-496A-AA69-B3D4947CA9EA}"/>
+    <hyperlink ref="E15" r:id="rId7" xr:uid="{EA990D0B-5B76-4CC1-8F1D-936DFD965709}"/>
+    <hyperlink ref="E14" r:id="rId8" xr:uid="{22C3A340-0F49-4184-9008-EF45DA2738EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId9"/>
   <tableParts count="2">
-    <tablePart r:id="rId8"/>
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Assets/Editor/EmailDataExample.xlsx
+++ b/Assets/Editor/EmailDataExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDesign\Programming 3\DesignWeek\RealBat\GonePhishing\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9138C3E-7B8D-4CD8-AA1B-5A235009E599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B2183D-D09D-477A-B390-8C646BD93340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A1DEF22-8015-43E6-8B07-6E12E7B783C7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="93">
   <si>
     <t>Sender</t>
   </si>
@@ -78,117 +78,15 @@
     <t>Sign Off</t>
   </si>
   <si>
-    <t>You've Won</t>
-  </si>
-  <si>
-    <t>Congratulations!</t>
-  </si>
-  <si>
-    <t>Con6ra+ulation$!</t>
-  </si>
-  <si>
-    <t>You win!</t>
-  </si>
-  <si>
     <t>Phishing Type</t>
   </si>
   <si>
-    <t>TooGood</t>
-  </si>
-  <si>
-    <t>Hello contestant,</t>
-  </si>
-  <si>
-    <t>Congratulations</t>
-  </si>
-  <si>
-    <t>You've won!</t>
-  </si>
-  <si>
-    <t>Thank you for participating in our sweepstakes</t>
-  </si>
-  <si>
     <t>MartianPrince</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>We hope this finds you at a good time</t>
-  </si>
-  <si>
-    <t>We have some exciting news to share!</t>
-  </si>
-  <si>
-    <t>We've just gotten word that you've just won a trip to London, Ontario!</t>
-  </si>
-  <si>
-    <t>We've just gotten word that you've just won a lifetime supplies of baguettes!</t>
-  </si>
-  <si>
-    <t>Click here to claim now!</t>
-  </si>
-  <si>
-    <t>Claim it at our number: 676-767-6767</t>
-  </si>
-  <si>
-    <t>Click on the attatchment to claim now!</t>
-  </si>
-  <si>
-    <t>Your membership has been renewed for another 15 years for FREE!</t>
-  </si>
-  <si>
-    <t>U IS WINNER</t>
-  </si>
-  <si>
-    <t>U WIN</t>
-  </si>
-  <si>
-    <t>Urgent</t>
-  </si>
-  <si>
-    <t>NEED HELP</t>
-  </si>
-  <si>
-    <t>Uh Oh!</t>
-  </si>
-  <si>
-    <t>Dude! Help me!</t>
-  </si>
-  <si>
-    <t>I got locked out of my computer!</t>
-  </si>
-  <si>
-    <t>Do you remember what my password is?</t>
-  </si>
-  <si>
-    <t>Send it to me via e-mail. Don't want the government to be listening to you saying it.</t>
-  </si>
-  <si>
-    <t>Goverment made me forget my passcode!</t>
-  </si>
-  <si>
-    <t>I've run into an issue</t>
-  </si>
-  <si>
-    <t>The sticky note where I write all my passwords is gone!</t>
-  </si>
-  <si>
-    <t>I can't log into my computer.</t>
-  </si>
-  <si>
-    <t>Please call my number if you remember it!</t>
-  </si>
-  <si>
-    <t>The government used a mind ray and made me forget my password!</t>
-  </si>
-  <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>Thanks</t>
-  </si>
-  <si>
     <t>Jack Spero</t>
   </si>
   <si>
@@ -255,19 +153,6 @@
     <t>First Name</t>
   </si>
   <si>
-    <t>Cautious as always,
-- Q2</t>
-  </si>
-  <si>
-    <t>I just spoke to R2 and you've won!</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>This is bad P1!</t>
-  </si>
-  <si>
     <t>Stanford</t>
   </si>
   <si>
@@ -280,33 +165,6 @@
     <t>Stanford@ISD.spa  </t>
   </si>
   <si>
-    <t>Story 1 </t>
-  </si>
-  <si>
-    <t>Congratulations on your promotion</t>
-  </si>
-  <si>
-    <t>Hello P1,</t>
-  </si>
-  <si>
-    <t>I see you have already start to move into your new office at the lunar base.</t>
-  </si>
-  <si>
-    <t>The base you’re stationed at is code named Anchor. </t>
-  </si>
-  <si>
-    <t>I hope you have been finding the transfer easy, you will be hearing more from me if anything happens on the moon as your overseer for this place.   </t>
-  </si>
-  <si>
-    <t>Regards. </t>
-  </si>
-  <si>
-    <t>Stanford, Moon Overseer </t>
-  </si>
-  <si>
-    <t>Story 2</t>
-  </si>
-  <si>
     <t>Spearow</t>
   </si>
   <si>
@@ -316,24 +174,6 @@
     <t>Jack@QFusion.spa </t>
   </si>
   <si>
-    <t>Need more supplies  </t>
-  </si>
-  <si>
-    <t>Good morning P1, </t>
-  </si>
-  <si>
-    <t>I have sent this email to request supplies from your lunar base around food and water. </t>
-  </si>
-  <si>
-    <t>This is due to an accident in which we had to use most of the water we had on hand to help produce the cooling liquid needed for the reactor otherwise it would start burning  </t>
-  </si>
-  <si>
-    <t>Our food supplies have also run out due to the next supplies ship being delayed bringing the water we now need.  </t>
-  </si>
-  <si>
-    <t>Regards,  </t>
-  </si>
-  <si>
     <t>Larry</t>
   </si>
   <si>
@@ -346,45 +186,6 @@
     <t>Larry@Atlantis.spa  </t>
   </si>
   <si>
-    <t>Story 3</t>
-  </si>
-  <si>
-    <t>Confirming Quasar Collection Needed more food and water supplies </t>
-  </si>
-  <si>
-    <t>Hello!</t>
-  </si>
-  <si>
-    <t>This email to help confirm the request from quasar collection that should be made by jack as they have been having issues and are low on supplies </t>
-  </si>
-  <si>
-    <t>I am the person in charge of bringing them new supplies but took a detour to grab a new water tank as they need that as soon as possible.  </t>
-  </si>
-  <si>
-    <t>Regards,</t>
-  </si>
-  <si>
-    <t>Ship Captain Larry</t>
-  </si>
-  <si>
-    <t>Story 4</t>
-  </si>
-  <si>
-    <t>First Incident on the moon  </t>
-  </si>
-  <si>
-    <t>Hello  </t>
-  </si>
-  <si>
-    <t>I heard about you having an incident with QFusion. </t>
-  </si>
-  <si>
-    <t>I orchestrated that fake incident to see how you would react to situations like that.  </t>
-  </si>
-  <si>
-    <t>You should be ready for any incident that comes your way. Well also making sure the incident is real either by the context or who is sending this info to you.  </t>
-  </si>
-  <si>
     <t>FusionReactorWorker </t>
   </si>
   <si>
@@ -394,70 +195,9 @@
     <t>MoonOverseer</t>
   </si>
   <si>
-    <t>MoonOverseer </t>
-  </si>
-  <si>
-    <t>My computer signed me out and I can't get back in!</t>
-  </si>
-  <si>
-    <t>Lazy Worker</t>
-  </si>
-  <si>
-    <t>Sick of R2's crap!</t>
-  </si>
-  <si>
-    <t>I'm DONE!</t>
-  </si>
-  <si>
-    <t>P1,</t>
-  </si>
-  <si>
-    <t>Hey,</t>
-  </si>
-  <si>
-    <t>Have you heard from Q2 lately?</t>
-  </si>
-  <si>
-    <t>Just need someone to vent to about Q2.</t>
-  </si>
-  <si>
-    <t>They were supposed to send me fixes for the space coffee machine 2 weeks ago!</t>
-  </si>
-  <si>
-    <t>Reach out to them when you can and tell them to fix this ASAP!!!</t>
-  </si>
-  <si>
-    <t>I know you work close to them, so go see what the hell is going on what them.</t>
-  </si>
-  <si>
-    <t>They've been blaring music non-stop for the past 3 hours!</t>
-  </si>
-  <si>
-    <t>They just stole my BAGUETTE from the company break room! THE NERVE!</t>
-  </si>
-  <si>
-    <t>Tell them to fix this, or else…</t>
-  </si>
-  <si>
-    <t>R2's biggest hater.</t>
-  </si>
-  <si>
-    <t>This is the last straw!</t>
-  </si>
-  <si>
-    <t>R2 is pissing me off!</t>
-  </si>
-  <si>
-    <t>I owe you one,
-- Q1</t>
-  </si>
-  <si>
     <t>IT</t>
   </si>
   <si>
-    <t>Real Issue</t>
-  </si>
-  <si>
     <t>Tech Fixer</t>
   </si>
   <si>
@@ -467,12 +207,6 @@
     <t>Fixer</t>
   </si>
   <si>
-    <t>Important Notice!</t>
-  </si>
-  <si>
-    <t>Sensitive</t>
-  </si>
-  <si>
     <t>Robert</t>
   </si>
   <si>
@@ -488,31 +222,122 @@
     <t>Fixer@ISDIT.spa</t>
   </si>
   <si>
-    <t>We've noticed some suspicious activity on your account.</t>
-  </si>
-  <si>
-    <t>Because of this, your login credientials have been suspended.</t>
-  </si>
-  <si>
-    <t>Click "this link" to resolve the issue.</t>
-  </si>
-  <si>
-    <t>IT - Q3</t>
-  </si>
-  <si>
-    <t>WARNING!</t>
-  </si>
-  <si>
-    <t>Our systems have noticed that your account was recently hacked.</t>
-  </si>
-  <si>
-    <t>Henceforth, you will not be able to use your company credentials.</t>
-  </si>
-  <si>
-    <t>If you believe this is a mistake, "click here" to file a report.</t>
-  </si>
-  <si>
-    <t>Please "click here" to verify your profile.</t>
+    <t>Personal 1</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>From: JohnJ@gmail.com
+Is This Suspicious?</t>
+  </si>
+  <si>
+    <t>Hello NBC! I received an email that I think looks oddly suspicious. I work as a VP for a chemical company, and was unsure if this was a real email I would receive?
+See it copied below:
+To: JohnJ@gmail.com
+From:PetrocoMarketingDivision@gmail.com
+Hello John!
+We at Petroco are looking for new manufacutring opportunities overseas, and are Very Excited to work with you! We would like to manufacutre your product per a liscensing agreement. A deposit of 50,000 credits is something we would like to provide as a show of good faith. We need a response back within 48 hours or else we will be looking elsewhere! We will respond with more details should you chose to follow up.
+Looking to hear back from you!
+Best,
+-Petroco Procurement Team</t>
+  </si>
+  <si>
+    <t>Personal 2</t>
+  </si>
+  <si>
+    <t>Personal 3</t>
+  </si>
+  <si>
+    <t>Phishing 1</t>
+  </si>
+  <si>
+    <t>Phishing 2</t>
+  </si>
+  <si>
+    <t>Phishing 3</t>
+  </si>
+  <si>
+    <t>Professional 1</t>
+  </si>
+  <si>
+    <t>Professional 2</t>
+  </si>
+  <si>
+    <t>Professional 3</t>
+  </si>
+  <si>
+    <t>We’ve heard from various sources that you leaked our correspondance with John, and we will be taking legal action against You.
+Here is your summons from court, and we WILL be seeing you.
+https://laws-lois.justice.gc.ca/eng/acts/C-46/section-509.html 
+Best,
+-Petroco Procurement Team</t>
+  </si>
+  <si>
+    <t>Greetings again! We tracked the Petroco company to a Eorzean botnet, and have asked authorities to investigate. Thank you for helping me solve whether or not it was a phishing scam! Imagine if I gave them our business accounts! Anyways, thank you.
+Warm Regards,
+John</t>
+  </si>
+  <si>
+    <t>Hello we were wondering if you would be interested in having a locally owned bakery come onto your show. We are willing to supply the crew with free pastries and bread during shooting. You will find our business info and menu attached in this email. Hope to hear from you soon and let us know if you are interested in this partnership.
+Regards,
+Head Chef Mary
+Attachments:
+Menu.pdf
+BaggyBaguettesInfo.exe</t>
+  </si>
+  <si>
+    <t>If you are receiving this email it means your cameras have been compromised and need a software update. In order to get the software update and being the update please head over to the link posted below and log into your account where you should see which cameras have been flagged. 
+CamGuardUpdates.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good day we are looking to buy you out from our competitors and are willing to offer 100k as your starting salary. If this interest you in quitting your job then have a look at the contract attached to this email and come down to our location. 
+Contract.html </t>
+  </si>
+  <si>
+    <t>Hey I have this error on my computer that I emailed you about two weeks ago and you ignored me. I emailed last week as well but I didn’t get a reply. I’m getting sick of this, and if you don’t help me, so god help me I’m reporting you to the manager. It’s some pop up saying I’m out of space on my cloud storage, and I can’t save anything!
+MAKE IT GO AWAY!!!</t>
+  </si>
+  <si>
+    <t>I’m sending this email to you because we’ve had this weird issue where the computer we’re using for the audio production locks up and we have to wait like 40 seconds to start using it again. I don’t want any downtime during the times we’re broadcasting, so maybe see about procuring an upgrade for our computer or seeing what’s wrong? 
+Kindly,
+Ivan</t>
+  </si>
+  <si>
+    <t>hi i need a new phone my one is freezing all the time. i download this app and it start laging my phone. it ask for login information too but i dont know what to put in can you help me please. also i got this email from you guys. it asked about a subscription but i dont remember a subscription. help me cancel it too please. 
+grace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From: JohnJ@gmail.com
+Thank You! </t>
+  </si>
+  <si>
+    <t>From: PetrocoMarketingDivision@gmail.com 
+Legal Action - Read At Once</t>
+  </si>
+  <si>
+    <t>From: Baggybaguettes@gmail.com
+Bakery On The News?</t>
+  </si>
+  <si>
+    <t>From: Warning@CamGuard.com
+WARNING!!! - SOFTWARE COMPROMISED!</t>
+  </si>
+  <si>
+    <t>From: Hiring@NRB.com
+Job Offer</t>
+  </si>
+  <si>
+    <t>From: Jenelle@NBC.com  
+Stupid IT! Fix this now!!!</t>
+  </si>
+  <si>
+    <t>From: Grace@NBC.com 
+hlep me</t>
+  </si>
+  <si>
+    <t>From: Ivan@NBC.com 
+Need some assistance</t>
   </si>
 </sst>
 </file>
@@ -577,7 +402,16 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <top style="thin">
@@ -950,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4422103-5E59-4D36-B01E-BBBBED35EAD4}">
-  <dimension ref="B4:Q28"/>
+  <dimension ref="B4:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +797,7 @@
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
     <col min="8" max="10" width="14.5703125" customWidth="1"/>
     <col min="11" max="11" width="23.5703125" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="48" customWidth="1"/>
     <col min="13" max="13" width="20.42578125" customWidth="1"/>
     <col min="16" max="16" width="8.85546875" customWidth="1"/>
     <col min="17" max="17" width="12.140625" customWidth="1"/>
@@ -983,13 +817,13 @@
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
@@ -1001,7 +835,7 @@
         <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
         <v>0</v>
@@ -1028,15 +862,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" ht="300" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -1045,548 +879,470 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="J6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" t="s">
-        <v>23</v>
+        <v>66</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="M6" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="N6" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="O6" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="P6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="195" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
         <v>5</v>
       </c>
-      <c r="K7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" t="s">
-        <v>25</v>
+      <c r="H7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="N7" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="O7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="P7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="150" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="225" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="135" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" t="s">
-        <v>121</v>
-      </c>
-      <c r="K8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="M10" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="135" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="M8" t="s">
-        <v>77</v>
-      </c>
-      <c r="O8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" t="s">
-        <v>120</v>
-      </c>
-      <c r="K9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="D11" t="s">
         <v>30</v>
       </c>
-      <c r="N9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="135" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>141</v>
-      </c>
-      <c r="K12" t="s">
-        <v>146</v>
-      </c>
-      <c r="L12" t="s">
-        <v>78</v>
+        <v>66</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="M12" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="N12" t="s">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="O12" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="P12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="165" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
         <v>5</v>
       </c>
-      <c r="K13" t="s">
-        <v>157</v>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="M13" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="N13" t="s">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="O13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="P13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="135" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>56</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N14" t="s">
+        <v>66</v>
       </c>
       <c r="O14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" ht="60" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="P14" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
-      </c>
-      <c r="H15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" t="s">
-        <v>41</v>
-      </c>
-      <c r="L15" t="s">
-        <v>42</v>
-      </c>
-      <c r="M15" t="s">
-        <v>43</v>
-      </c>
-      <c r="N15" t="s">
-        <v>44</v>
-      </c>
-      <c r="O15" t="s">
-        <v>45</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>76</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="P15" s="3"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" t="s">
-        <v>79</v>
-      </c>
-      <c r="L16" t="s">
-        <v>47</v>
-      </c>
-      <c r="M16" t="s">
-        <v>49</v>
-      </c>
-      <c r="N16" t="s">
-        <v>48</v>
-      </c>
-      <c r="O16" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E17" s="1"/>
-      <c r="K17" t="s">
-        <v>46</v>
-      </c>
-      <c r="M17" t="s">
-        <v>123</v>
-      </c>
-      <c r="N17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="H18" t="s">
-        <v>124</v>
-      </c>
-      <c r="J18" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" t="s">
-        <v>125</v>
-      </c>
-      <c r="L18" t="s">
-        <v>127</v>
-      </c>
-      <c r="M18" t="s">
-        <v>129</v>
-      </c>
-      <c r="N18" t="s">
-        <v>131</v>
-      </c>
-      <c r="O18" t="s">
-        <v>132</v>
-      </c>
-      <c r="P18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="5:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="K19" t="s">
-        <v>126</v>
-      </c>
-      <c r="L19" t="s">
-        <v>128</v>
-      </c>
-      <c r="M19" t="s">
-        <v>130</v>
-      </c>
-      <c r="N19" t="s">
-        <v>134</v>
-      </c>
-      <c r="O19" t="s">
-        <v>133</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="5:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="K20" t="s">
-        <v>138</v>
-      </c>
-      <c r="M20" t="s">
-        <v>139</v>
-      </c>
-      <c r="N20" t="s">
-        <v>135</v>
-      </c>
-      <c r="O20" t="s">
-        <v>136</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="H23" t="s">
-        <v>52</v>
-      </c>
-      <c r="J23" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" t="s">
-        <v>52</v>
-      </c>
-      <c r="L23" t="s">
-        <v>52</v>
-      </c>
-      <c r="M23" t="s">
-        <v>52</v>
-      </c>
-      <c r="N23" t="s">
-        <v>52</v>
-      </c>
-      <c r="O23" t="s">
-        <v>52</v>
-      </c>
-      <c r="P23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="H24" t="s">
-        <v>84</v>
-      </c>
-      <c r="J24" t="s">
-        <v>121</v>
-      </c>
-      <c r="K24" t="s">
-        <v>85</v>
-      </c>
-      <c r="L24" t="s">
-        <v>86</v>
-      </c>
-      <c r="M24" t="s">
-        <v>87</v>
-      </c>
-      <c r="N24" t="s">
-        <v>88</v>
-      </c>
-      <c r="O24" t="s">
-        <v>89</v>
-      </c>
-      <c r="P24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="H25" t="s">
-        <v>92</v>
-      </c>
-      <c r="J25" t="s">
-        <v>119</v>
-      </c>
-      <c r="K25" t="s">
-        <v>96</v>
-      </c>
-      <c r="L25" t="s">
-        <v>97</v>
-      </c>
-      <c r="M25" t="s">
-        <v>98</v>
-      </c>
-      <c r="N25" t="s">
-        <v>99</v>
-      </c>
-      <c r="O25" t="s">
-        <v>100</v>
-      </c>
-      <c r="P25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="H26" t="s">
-        <v>106</v>
-      </c>
-      <c r="J26" t="s">
-        <v>120</v>
-      </c>
-      <c r="K26" t="s">
-        <v>107</v>
-      </c>
-      <c r="L26" t="s">
-        <v>108</v>
-      </c>
-      <c r="M26" t="s">
-        <v>109</v>
-      </c>
-      <c r="N26" t="s">
-        <v>110</v>
-      </c>
-      <c r="O26" t="s">
-        <v>111</v>
-      </c>
-      <c r="P26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="H27" t="s">
-        <v>113</v>
-      </c>
-      <c r="J27" t="s">
-        <v>122</v>
-      </c>
-      <c r="K27" t="s">
-        <v>114</v>
-      </c>
-      <c r="L27" t="s">
-        <v>115</v>
-      </c>
-      <c r="M27" t="s">
-        <v>116</v>
-      </c>
-      <c r="N27" t="s">
-        <v>117</v>
-      </c>
-      <c r="O27" t="s">
-        <v>118</v>
-      </c>
-      <c r="P27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="P28" t="s">
-        <v>91</v>
-      </c>
+    </row>
+    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="P20" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H6:Q30">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="H6:J6 L6:Q6 H7:Q30">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$H6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:Q33">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$H31&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$H31&lt;&gt;""</formula>
+      <formula>$H6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/Assets/Editor/EmailDataExample.xlsx
+++ b/Assets/Editor/EmailDataExample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDesign\Programming 3\DesignWeek\RealBat\GonePhishing\Assets\Editor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speroj\Documents\GitHub\GonePhishing\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B2183D-D09D-477A-B390-8C646BD93340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBECF186-AE51-4D9D-9E57-C874EF4A0AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A1DEF22-8015-43E6-8B07-6E12E7B783C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{3A1DEF22-8015-43E6-8B07-6E12E7B783C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="100">
   <si>
     <t>Sender</t>
   </si>
@@ -338,6 +338,27 @@
   <si>
     <t>From: Ivan@NBC.com 
 Need some assistance</t>
+  </si>
+  <si>
+    <t>Nah it's good.</t>
+  </si>
+  <si>
+    <t>You're already hacked.</t>
+  </si>
+  <si>
+    <t>It's over John, I have the high ground!</t>
+  </si>
+  <si>
+    <t>Lol sure buddy.</t>
+  </si>
+  <si>
+    <t>Oh yeah? Not if I sue you first!</t>
+  </si>
+  <si>
+    <t>I'll see YOU in court</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -488,9 +509,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -528,7 +549,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -634,7 +655,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -776,7 +797,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -786,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4422103-5E59-4D36-B01E-BBBBED35EAD4}">
   <dimension ref="B4:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,7 +903,7 @@
         <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="J6" t="s">
         <v>66</v>
@@ -894,13 +915,13 @@
         <v>68</v>
       </c>
       <c r="M6" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="O6" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="P6" t="s">
         <v>66</v>
@@ -929,7 +950,7 @@
         <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
         <v>66</v>
@@ -941,13 +962,13 @@
         <v>77</v>
       </c>
       <c r="M7" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="N7" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="P7" t="s">
         <v>66</v>
@@ -976,7 +997,7 @@
         <v>70</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
         <v>66</v>
@@ -1164,7 +1185,7 @@
         <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="J12" t="s">
         <v>66</v>
@@ -1211,7 +1232,7 @@
         <v>75</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="J13" t="s">
         <v>66</v>
@@ -1258,7 +1279,7 @@
         <v>76</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="J14" t="s">
         <v>66</v>

--- a/Assets/Editor/EmailDataExample.xlsx
+++ b/Assets/Editor/EmailDataExample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speroj\Documents\GitHub\GonePhishing\Assets\Editor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDesign\Programming 3\Final Assignment\Gone Phish\GonePhishing\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBECF186-AE51-4D9D-9E57-C874EF4A0AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6432EF4-8DA3-4FE7-A04C-78F018A34C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{3A1DEF22-8015-43E6-8B07-6E12E7B783C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A1DEF22-8015-43E6-8B07-6E12E7B783C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="104">
   <si>
     <t>Sender</t>
   </si>
@@ -222,33 +222,9 @@
     <t>Fixer@ISDIT.spa</t>
   </si>
   <si>
-    <t>Personal 1</t>
-  </si>
-  <si>
     <t>Hi</t>
   </si>
   <si>
-    <t>From: JohnJ@gmail.com
-Is This Suspicious?</t>
-  </si>
-  <si>
-    <t>Hello NBC! I received an email that I think looks oddly suspicious. I work as a VP for a chemical company, and was unsure if this was a real email I would receive?
-See it copied below:
-To: JohnJ@gmail.com
-From:PetrocoMarketingDivision@gmail.com
-Hello John!
-We at Petroco are looking for new manufacutring opportunities overseas, and are Very Excited to work with you! We would like to manufacutre your product per a liscensing agreement. A deposit of 50,000 credits is something we would like to provide as a show of good faith. We need a response back within 48 hours or else we will be looking elsewhere! We will respond with more details should you chose to follow up.
-Looking to hear back from you!
-Best,
--Petroco Procurement Team</t>
-  </si>
-  <si>
-    <t>Personal 2</t>
-  </si>
-  <si>
-    <t>Personal 3</t>
-  </si>
-  <si>
     <t>Phishing 1</t>
   </si>
   <si>
@@ -265,18 +241,6 @@
   </si>
   <si>
     <t>Professional 3</t>
-  </si>
-  <si>
-    <t>We’ve heard from various sources that you leaked our correspondance with John, and we will be taking legal action against You.
-Here is your summons from court, and we WILL be seeing you.
-https://laws-lois.justice.gc.ca/eng/acts/C-46/section-509.html 
-Best,
--Petroco Procurement Team</t>
-  </si>
-  <si>
-    <t>Greetings again! We tracked the Petroco company to a Eorzean botnet, and have asked authorities to investigate. Thank you for helping me solve whether or not it was a phishing scam! Imagine if I gave them our business accounts! Anyways, thank you.
-Warm Regards,
-John</t>
   </si>
   <si>
     <t>Hello we were wondering if you would be interested in having a locally owned bakery come onto your show. We are willing to supply the crew with free pastries and bread during shooting. You will find our business info and menu attached in this email. Hope to hear from you soon and let us know if you are interested in this partnership.
@@ -308,14 +272,6 @@
 grace</t>
   </si>
   <si>
-    <t xml:space="preserve">From: JohnJ@gmail.com
-Thank You! </t>
-  </si>
-  <si>
-    <t>From: PetrocoMarketingDivision@gmail.com 
-Legal Action - Read At Once</t>
-  </si>
-  <si>
     <t>From: Baggybaguettes@gmail.com
 Bakery On The News?</t>
   </si>
@@ -340,25 +296,67 @@
 Need some assistance</t>
   </si>
   <si>
-    <t>Nah it's good.</t>
-  </si>
-  <si>
-    <t>You're already hacked.</t>
-  </si>
-  <si>
-    <t>It's over John, I have the high ground!</t>
-  </si>
-  <si>
-    <t>Lol sure buddy.</t>
-  </si>
-  <si>
-    <t>Oh yeah? Not if I sue you first!</t>
-  </si>
-  <si>
-    <t>I'll see YOU in court</t>
-  </si>
-  <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Hello Admin! Today, there is an uptick of urgent phishing scams, and a general increase in scams that are too good to be true! These are things you might know, like a bunch of free money or a car! Also they could threaten you to accept these fast, so please keep an eye out!</t>
+  </si>
+  <si>
+    <t>From: Training</t>
+  </si>
+  <si>
+    <t>Why do we need this again?</t>
+  </si>
+  <si>
+    <t>Piss Off!</t>
+  </si>
+  <si>
+    <t>Thank You!</t>
+  </si>
+  <si>
+    <t>D1 1</t>
+  </si>
+  <si>
+    <t>Hello admin, I hope you’re doing well. Recently, our company has been under some intense public scrutiny due to some… ethical concerns. As a result, some internet sleuths may be trying to breach the system. Keep an eye out for anything suspicious, like something needing to get done now, or anything that seems too good to be true. Good luck.</t>
+  </si>
+  <si>
+    <t>From: BruceS@NBC.com
+Heads Up!</t>
+  </si>
+  <si>
+    <t>Ok, thank you!</t>
+  </si>
+  <si>
+    <t>I don’t need you telling me how to do my job, the AI already pesters me.</t>
+  </si>
+  <si>
+    <t>I’ll keep an eye out.</t>
+  </si>
+  <si>
+    <t>Hello Admin!
+I would like to request all documents related to networking, and server credentials be handed to me through this email. This should be done as soon as you read this email without question.</t>
+  </si>
+  <si>
+    <t>From: RemoteAccessBruceS@NBO.com
+Need Access NOW!</t>
+  </si>
+  <si>
+    <t>Ok, I’ll send them over soon.</t>
+  </si>
+  <si>
+    <t>Bruce why aren’t you using your email? Is this spam?</t>
+  </si>
+  <si>
+    <t>Who are you?</t>
+  </si>
+  <si>
+    <t>D1 2</t>
+  </si>
+  <si>
+    <t>D1 3</t>
+  </si>
+  <si>
+    <t>Urgent or Threatening Language</t>
   </si>
 </sst>
 </file>
@@ -509,9 +507,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -549,7 +547,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -655,7 +653,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -797,7 +795,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -807,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4422103-5E59-4D36-B01E-BBBBED35EAD4}">
   <dimension ref="B4:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,7 +881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="300" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" ht="90" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -900,37 +898,37 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="I6" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="M6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="N6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" ht="195" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="105" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -947,37 +945,37 @@
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="I7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="M7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" ht="150" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="75" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -994,34 +992,34 @@
         <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" t="s">
         <v>99</v>
       </c>
-      <c r="J8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M8" t="s">
-        <v>66</v>
-      </c>
-      <c r="N8" t="s">
-        <v>66</v>
-      </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="225" x14ac:dyDescent="0.25">
@@ -1041,34 +1039,34 @@
         <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="135" x14ac:dyDescent="0.25">
@@ -1088,34 +1086,34 @@
         <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="M10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="2:17" ht="135" x14ac:dyDescent="0.25">
@@ -1135,34 +1133,34 @@
         <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="135" x14ac:dyDescent="0.25">
@@ -1182,34 +1180,34 @@
         <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I12" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="J12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="M12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="165" x14ac:dyDescent="0.25">
@@ -1229,34 +1227,34 @@
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I13" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="J13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="M13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="135" x14ac:dyDescent="0.25">
@@ -1276,34 +1274,34 @@
         <v>56</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I14" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="J14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="M14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
@@ -1351,7 +1349,7 @@
       <c r="P20" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H6:J6 L6:Q6 H7:Q30">
+  <conditionalFormatting sqref="H9:Q30 H6:J7 L6:L7 N6:Q6 H8:L8 P7:Q8">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$H6&lt;&gt;""</formula>
     </cfRule>

--- a/Assets/Editor/EmailDataExample.xlsx
+++ b/Assets/Editor/EmailDataExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDesign\Programming 3\Final Assignment\Gone Phish\GonePhishing\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6432EF4-8DA3-4FE7-A04C-78F018A34C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC5AC54-A72C-4E69-BEE9-FD3B00342866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A1DEF22-8015-43E6-8B07-6E12E7B783C7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="142">
   <si>
     <t>Sender</t>
   </si>
@@ -223,24 +223,6 @@
   </si>
   <si>
     <t>Hi</t>
-  </si>
-  <si>
-    <t>Phishing 1</t>
-  </si>
-  <si>
-    <t>Phishing 2</t>
-  </si>
-  <si>
-    <t>Phishing 3</t>
-  </si>
-  <si>
-    <t>Professional 1</t>
-  </si>
-  <si>
-    <t>Professional 2</t>
-  </si>
-  <si>
-    <t>Professional 3</t>
   </si>
   <si>
     <t>Hello we were wondering if you would be interested in having a locally owned bakery come onto your show. We are willing to supply the crew with free pastries and bread during shooting. You will find our business info and menu attached in this email. Hope to hear from you soon and let us know if you are interested in this partnership.
@@ -251,112 +233,242 @@
 BaggyBaguettesInfo.exe</t>
   </si>
   <si>
-    <t>If you are receiving this email it means your cameras have been compromised and need a software update. In order to get the software update and being the update please head over to the link posted below and log into your account where you should see which cameras have been flagged. 
-CamGuardUpdates.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Good day we are looking to buy you out from our competitors and are willing to offer 100k as your starting salary. If this interest you in quitting your job then have a look at the contract attached to this email and come down to our location. 
-Contract.html </t>
-  </si>
-  <si>
-    <t>Hey I have this error on my computer that I emailed you about two weeks ago and you ignored me. I emailed last week as well but I didn’t get a reply. I’m getting sick of this, and if you don’t help me, so god help me I’m reporting you to the manager. It’s some pop up saying I’m out of space on my cloud storage, and I can’t save anything!
-MAKE IT GO AWAY!!!</t>
-  </si>
-  <si>
-    <t>I’m sending this email to you because we’ve had this weird issue where the computer we’re using for the audio production locks up and we have to wait like 40 seconds to start using it again. I don’t want any downtime during the times we’re broadcasting, so maybe see about procuring an upgrade for our computer or seeing what’s wrong? 
+    <t>From: Baggybaguettes@gmail.com
+Bakery On The News?</t>
+  </si>
+  <si>
+    <t>From: Warning@CamGuard.com
+WARNING!!! - SOFTWARE COMPROMISED!</t>
+  </si>
+  <si>
+    <t>From: Hiring@NRB.com
+Job Offer</t>
+  </si>
+  <si>
+    <t>From: Jenelle@NBC.com  
+Stupid IT! Fix this now!!!</t>
+  </si>
+  <si>
+    <t>From: Grace@NBC.com 
+hlep me</t>
+  </si>
+  <si>
+    <t>From: Ivan@NBC.com 
+Need some assistance</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Hello Admin! Today, there is an uptick of urgent phishing scams, and a general increase in scams that are too good to be true! These are things you might know, like a bunch of free money or a car! Also they could threaten you to accept these fast, so please keep an eye out!</t>
+  </si>
+  <si>
+    <t>From: Training</t>
+  </si>
+  <si>
+    <t>Why do we need this again?</t>
+  </si>
+  <si>
+    <t>Piss Off!</t>
+  </si>
+  <si>
+    <t>Thank You!</t>
+  </si>
+  <si>
+    <t>D1 1</t>
+  </si>
+  <si>
+    <t>Hello admin, I hope you’re doing well. Recently, our company has been under some intense public scrutiny due to some… ethical concerns. As a result, some internet sleuths may be trying to breach the system. Keep an eye out for anything suspicious, like something needing to get done now, or anything that seems too good to be true. Good luck.</t>
+  </si>
+  <si>
+    <t>From: BruceS@NBC.com
+Heads Up!</t>
+  </si>
+  <si>
+    <t>Ok, thank you!</t>
+  </si>
+  <si>
+    <t>I don’t need you telling me how to do my job, the AI already pesters me.</t>
+  </si>
+  <si>
+    <t>I’ll keep an eye out.</t>
+  </si>
+  <si>
+    <t>Hello Admin!
+I would like to request all documents related to networking, and server credentials be handed to me through this email. This should be done as soon as you read this email without question.</t>
+  </si>
+  <si>
+    <t>From: RemoteAccessBruceS@NBO.com
+Need Access NOW!</t>
+  </si>
+  <si>
+    <t>Ok, I’ll send them over soon.</t>
+  </si>
+  <si>
+    <t>Bruce why aren’t you using your email? Is this spam?</t>
+  </si>
+  <si>
+    <t>Who are you?</t>
+  </si>
+  <si>
+    <t>D1 2</t>
+  </si>
+  <si>
+    <t>D1 3</t>
+  </si>
+  <si>
+    <t>Urgent or Threatening Language</t>
+  </si>
+  <si>
+    <t>D1 4</t>
+  </si>
+  <si>
+    <t>Good day we are looking to buy your skills from our competitors and are willing to offer 120k as your starting salary, and a signing bonus of 30k. If this interest you in quitting your job then have a look at the contract attached to this email and come down to our location. We need a response within 48h, or we WILL move on with a different candidate.</t>
+  </si>
+  <si>
+    <t>Ok, I’ll look at it and reply soon!</t>
+  </si>
+  <si>
+    <t>Can I get more info?</t>
+  </si>
+  <si>
+    <t>I didn’t apply for no job recently?</t>
+  </si>
+  <si>
+    <t>No one does business for free.</t>
+  </si>
+  <si>
+    <t>Sounds great! We’ll let you know more later.</t>
+  </si>
+  <si>
+    <t>I’m not sure if this is spam or what, please email back if not.</t>
+  </si>
+  <si>
+    <t>D1 5</t>
+  </si>
+  <si>
+    <t>Looping in everyone here, just got an email asking about a free gift card, can’t say I recall any raffles around here? Maybe I don’t go outside enough though, and one of you know about this?</t>
+  </si>
+  <si>
+    <t>D1 6</t>
+  </si>
+  <si>
+    <t>Can’t say I do, though I did just get an email asking for some employee info.</t>
+  </si>
+  <si>
+    <t>Nah, not sure about that one, Maybe Grace knows, she’s a real penny pincher.</t>
+  </si>
+  <si>
+    <t>Jenelle might know, she does get around more than us.</t>
+  </si>
+  <si>
+    <t>Before I clock out for the day, I’ve been checking the status on the cameras cause the system keeps flagging an unauthorized connection. Problem is, it won’t tell more details and I can’t do anything with out this dumb company we hired to send someone to come look at it so our contract doesn’t break. This is dumb as hell, and it’s just cause we wanted to save money. Just don’t relay on the cameras to capture everything for awhile.</t>
+  </si>
+  <si>
+    <t>Hmm, I’ll take a look tomorrow. Think I’ll send an email companywide as well.</t>
+  </si>
+  <si>
+    <t>Gotcha, I’ll keep note of it. Probably going to send an email to everyone as well.</t>
+  </si>
+  <si>
+    <t>Let me take a look then I’ll ask the contractor. Likely will send an email letting everyone know tom as well.</t>
+  </si>
+  <si>
+    <t>hi i need a new phone my one is freezing all the time. i download this app and it start laging my phone. it ask for login information too but i dont know what to put in can you help me please. also i got this email from you guys. it asked about a subscription but i dont remember a subscription. help me cancel it too please.
+grace</t>
+  </si>
+  <si>
+    <t>Ok Grace, I’ll come by and take a look soon.</t>
+  </si>
+  <si>
+    <t>Grace please punctuate and spell your emails, I don’t know if this is you,</t>
+  </si>
+  <si>
+    <t>I think this is spam.</t>
+  </si>
+  <si>
+    <t>I’m sending this email to you because we’ve had this weird issue recently where the computer we’re using for the audio production locks up and we have to wait like 40 seconds to start using it again. I don’t want any downtime during the times we’re broadcasting, so maybe see about procuring an upgrade for our computer or seeing what’s wrong?
 Kindly,
 Ivan</t>
   </si>
   <si>
-    <t>hi i need a new phone my one is freezing all the time. i download this app and it start laging my phone. it ask for login information too but i dont know what to put in can you help me please. also i got this email from you guys. it asked about a subscription but i dont remember a subscription. help me cancel it too please. 
-grace</t>
-  </si>
-  <si>
-    <t>From: Baggybaguettes@gmail.com
-Bakery On The News?</t>
-  </si>
-  <si>
-    <t>From: Warning@CamGuard.com
-WARNING!!! - SOFTWARE COMPROMISED!</t>
-  </si>
-  <si>
-    <t>From: Hiring@NRB.com
-Job Offer</t>
-  </si>
-  <si>
-    <t>From: Jenelle@NBC.com  
-Stupid IT! Fix this now!!!</t>
-  </si>
-  <si>
-    <t>From: Grace@NBC.com 
-hlep me</t>
-  </si>
-  <si>
-    <t>From: Ivan@NBC.com 
-Need some assistance</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Hello Admin! Today, there is an uptick of urgent phishing scams, and a general increase in scams that are too good to be true! These are things you might know, like a bunch of free money or a car! Also they could threaten you to accept these fast, so please keep an eye out!</t>
-  </si>
-  <si>
-    <t>From: Training</t>
-  </si>
-  <si>
-    <t>Why do we need this again?</t>
-  </si>
-  <si>
-    <t>Piss Off!</t>
-  </si>
-  <si>
-    <t>Thank You!</t>
-  </si>
-  <si>
-    <t>D1 1</t>
-  </si>
-  <si>
-    <t>Hello admin, I hope you’re doing well. Recently, our company has been under some intense public scrutiny due to some… ethical concerns. As a result, some internet sleuths may be trying to breach the system. Keep an eye out for anything suspicious, like something needing to get done now, or anything that seems too good to be true. Good luck.</t>
-  </si>
-  <si>
-    <t>From: BruceS@NBC.com
-Heads Up!</t>
-  </si>
-  <si>
-    <t>Ok, thank you!</t>
-  </si>
-  <si>
-    <t>I don’t need you telling me how to do my job, the AI already pesters me.</t>
-  </si>
-  <si>
-    <t>I’ll keep an eye out.</t>
-  </si>
-  <si>
-    <t>Hello Admin!
-I would like to request all documents related to networking, and server credentials be handed to me through this email. This should be done as soon as you read this email without question.</t>
-  </si>
-  <si>
-    <t>From: RemoteAccessBruceS@NBO.com
-Need Access NOW!</t>
-  </si>
-  <si>
-    <t>Ok, I’ll send them over soon.</t>
-  </si>
-  <si>
-    <t>Bruce why aren’t you using your email? Is this spam?</t>
-  </si>
-  <si>
-    <t>Who are you?</t>
-  </si>
-  <si>
-    <t>D1 2</t>
-  </si>
-  <si>
-    <t>D1 3</t>
-  </si>
-  <si>
-    <t>Urgent or Threatening Language</t>
+    <t>I’ll get back to you soon, and I’ll ask management if they can expense it.</t>
+  </si>
+  <si>
+    <t>I’ll take a look at the computer later.</t>
+  </si>
+  <si>
+    <t>Ivan, you just told me you didn’t need a new computer a few months ago.</t>
+  </si>
+  <si>
+    <t>Hey I have this error on my computer that I emailed you about two weeks ago and you ignored me. I emailed last week as well but I didn’t get a reply. I’m getting sick of this, and if you don’t help me, so god help me I’m reporting you to the manager. It’s some pop up saying I’m out of space on my cloud storage, and I can’t save anything!
+MAKE IT GO AWAY!!</t>
+  </si>
+  <si>
+    <t>Jeez calm down Jenelle, I’ll take a look now.</t>
+  </si>
+  <si>
+    <t>Jenelle you sure this is meant for me? Seems super aggressive.</t>
+  </si>
+  <si>
+    <t>This is spam right?</t>
+  </si>
+  <si>
+    <t>Yo dude, I got this email from this company, it’s got some sick deals about computers on sale! I think we should take a look actually, it’s like top end hardware for like 99% off! And it’s got a 2 for one deal! What a steal! And it’s not from RamPC! It says we gotta act quick though, the sale only lasts 12 hours. I’m gonna buy some stuff for our department with the company card.</t>
+  </si>
+  <si>
+    <t>Gully, this seems way too good to be true, don’t buy anything.</t>
+  </si>
+  <si>
+    <t>Hang on, take a look at RamPC and see if they’re legit, then buy it.</t>
+  </si>
+  <si>
+    <t>Sounds good, let me know how it goes!</t>
+  </si>
+  <si>
+    <t>You’ve spent over 250,000 thousand dollars today. Are you sure this is you? We’ve locked your card, please contact us if this is you.</t>
+  </si>
+  <si>
+    <t>I think one of our coworkers just fell for a phishing scam.</t>
+  </si>
+  <si>
+    <t>This isn’t real.</t>
+  </si>
+  <si>
+    <t>This is not us, find someone else.</t>
+  </si>
+  <si>
+    <t>I am writing to you as we have on your files that a 100,000 car from Grotti was bought in your name and you have not paid any taxes for this. If this is not you then please respond.</t>
+  </si>
+  <si>
+    <t>I think your files are wrong or messed up cause I never bought a car.</t>
+  </si>
+  <si>
+    <t>Ask Bruce, looks like something he’d buy, not me.</t>
+  </si>
+  <si>
+    <t>Find someone else, I’m too broke for a Grotti</t>
+  </si>
+  <si>
+    <t>D1 7</t>
+  </si>
+  <si>
+    <t>D1 8</t>
+  </si>
+  <si>
+    <t>D1 9</t>
+  </si>
+  <si>
+    <t>D1 10</t>
+  </si>
+  <si>
+    <t>D1 11</t>
+  </si>
+  <si>
+    <t>D1 12</t>
+  </si>
+  <si>
+    <t>D1 13</t>
   </si>
 </sst>
 </file>
@@ -409,12 +521,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -805,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4422103-5E59-4D36-B01E-BBBBED35EAD4}">
   <dimension ref="B4:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="E15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,28 +1013,28 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s">
         <v>65</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="M6" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="P6" t="s">
         <v>65</v>
@@ -945,28 +1060,28 @@
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="I7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
         <v>84</v>
-      </c>
-      <c r="J7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" t="s">
-        <v>93</v>
-      </c>
-      <c r="N7" t="s">
-        <v>94</v>
-      </c>
-      <c r="O7" t="s">
-        <v>95</v>
       </c>
       <c r="P7" t="s">
         <v>65</v>
@@ -992,28 +1107,28 @@
         <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
         <v>65</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="M8" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="P8" t="s">
         <v>65</v>
@@ -1039,28 +1154,28 @@
         <v>54</v>
       </c>
       <c r="H9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="M9" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="N9" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="P9" t="s">
         <v>65</v>
@@ -1069,7 +1184,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" ht="105" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>47</v>
       </c>
@@ -1086,7 +1201,7 @@
         <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="I10" t="s">
         <v>65</v>
@@ -1095,19 +1210,19 @@
         <v>65</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="M10" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="N10" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="O10" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="P10" t="s">
         <v>65</v>
@@ -1116,7 +1231,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="135" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -1133,7 +1248,7 @@
         <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="I11" t="s">
         <v>65</v>
@@ -1142,19 +1257,19 @@
         <v>65</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="M11" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="N11" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="O11" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="P11" t="s">
         <v>65</v>
@@ -1180,28 +1295,28 @@
         <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s">
         <v>65</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="M12" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="N12" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="O12" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="P12" t="s">
         <v>65</v>
@@ -1210,7 +1325,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="165" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" ht="120" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -1227,28 +1342,28 @@
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="I13" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s">
         <v>65</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="M13" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="N13" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="O13" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="P13" t="s">
         <v>65</v>
@@ -1274,28 +1389,28 @@
         <v>56</v>
       </c>
       <c r="H14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I14" t="s">
-        <v>84</v>
-      </c>
-      <c r="J14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="L14" s="3" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="M14" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="N14" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="O14" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="P14" t="s">
         <v>65</v>
@@ -1304,7 +1419,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" ht="120" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>57</v>
       </c>
@@ -1320,9 +1435,38 @@
       <c r="F15" t="s">
         <v>56</v>
       </c>
-      <c r="P15" s="3"/>
+      <c r="H15" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" t="s">
+        <v>120</v>
+      </c>
+      <c r="N15" t="s">
+        <v>121</v>
+      </c>
+      <c r="O15" t="s">
+        <v>122</v>
+      </c>
+      <c r="P15" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" ht="120" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>6</v>
       </c>
@@ -1338,29 +1482,121 @@
       <c r="F16" t="s">
         <v>18</v>
       </c>
+      <c r="H16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I16" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" t="s">
+        <v>124</v>
+      </c>
+      <c r="N16" t="s">
+        <v>125</v>
+      </c>
+      <c r="O16" t="s">
+        <v>126</v>
+      </c>
+      <c r="P16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:17" ht="45" x14ac:dyDescent="0.25">
       <c r="E17" s="1"/>
+      <c r="H17" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="M17" t="s">
+        <v>128</v>
+      </c>
+      <c r="N17" t="s">
+        <v>129</v>
+      </c>
+      <c r="O17" t="s">
+        <v>130</v>
+      </c>
+      <c r="P17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>141</v>
+      </c>
+      <c r="I18" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N18" t="s">
+        <v>133</v>
+      </c>
+      <c r="O18" t="s">
+        <v>134</v>
+      </c>
+      <c r="P18" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="5:17" x14ac:dyDescent="0.25">
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:17" x14ac:dyDescent="0.25">
       <c r="P20" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H9:Q30 H6:J7 L6:L7 N6:Q6 H8:L8 P7:Q8">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$H6&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H31:Q33">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$H31&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$H6&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6:Q6 H6:J7 L6:L7 H8:L14 M16:O16 M18:O18 H19:Q30 H15:K18 P7:Q18">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$H6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assets/Editor/EmailDataExample.xlsx
+++ b/Assets/Editor/EmailDataExample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDesign\Programming 3\Final Assignment\Gone Phish\GonePhishing\Assets\Editor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speroj\Documents\GitHub\GonePhishing\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC5AC54-A72C-4E69-BEE9-FD3B00342866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C595A1-31C1-4620-B453-4BD41CB0DB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A1DEF22-8015-43E6-8B07-6E12E7B783C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{3A1DEF22-8015-43E6-8B07-6E12E7B783C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="143">
   <si>
     <t>Sender</t>
   </si>
@@ -469,6 +469,9 @@
   </si>
   <si>
     <t>D1 13</t>
+  </si>
+  <si>
+    <t>Too Good To Be True</t>
   </si>
 </sst>
 </file>
@@ -622,9 +625,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -662,7 +665,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -768,7 +771,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -910,7 +913,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -920,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4422103-5E59-4D36-B01E-BBBBED35EAD4}">
   <dimension ref="B4:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" topLeftCell="E14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1160,7 @@
         <v>93</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="J9" t="s">
         <v>65</v>
@@ -1204,7 +1207,7 @@
         <v>101</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s">
         <v>65</v>
@@ -1251,7 +1254,7 @@
         <v>103</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s">
         <v>65</v>
@@ -1595,7 +1598,7 @@
       <formula>$H6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6:Q6 H6:J7 L6:L7 H8:L14 M16:O16 M18:O18 H19:Q30 H15:K18 P7:Q18">
+  <conditionalFormatting sqref="N6:Q6 H6:J7 L6:L7 P7:Q18 H8:L14 H15:K18 M16:O16 M18:O18 H19:Q30">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>$H6&lt;&gt;""</formula>
     </cfRule>

--- a/Assets/Editor/EmailDataExample.xlsx
+++ b/Assets/Editor/EmailDataExample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speroj\Documents\GitHub\GonePhishing\Assets\Editor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDesign\Programming 3\Final Assignment\Gone Phish\GonePhishing\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C595A1-31C1-4620-B453-4BD41CB0DB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243B6D54-711D-4C1D-AD91-EA049A2CFB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{3A1DEF22-8015-43E6-8B07-6E12E7B783C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A1DEF22-8015-43E6-8B07-6E12E7B783C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="167">
   <si>
     <t>Sender</t>
   </si>
@@ -471,7 +471,83 @@
     <t>D1 13</t>
   </si>
   <si>
-    <t>Too Good To Be True</t>
+    <t>G1 Good</t>
+  </si>
+  <si>
+    <t>G1 Bad</t>
+  </si>
+  <si>
+    <t>Suspicious Attatchments</t>
+  </si>
+  <si>
+    <t>Oh dude for real? Thank god I didn’t put anything in yet. That coulda been bad coulda gotten fired or something!</t>
+  </si>
+  <si>
+    <t>At least I got to you in time, don’t do it again.</t>
+  </si>
+  <si>
+    <t>Gully please, my heart. I don’t wanna think about the consequences.</t>
+  </si>
+  <si>
+    <t>Hoolly shit, thank god you listened to me.</t>
+  </si>
+  <si>
+    <t>From: Gully@NBC.com
+That would have been dumb</t>
+  </si>
+  <si>
+    <t>From: Gully@NBC.com
+Its over bro</t>
+  </si>
+  <si>
+    <t>Oh shit dude, I think I fell for a scam… I’m done for..</t>
+  </si>
+  <si>
+    <t>I warned you!</t>
+  </si>
+  <si>
+    <t>You’re joking right?</t>
+  </si>
+  <si>
+    <t>How the hell am I gonna let management know.</t>
+  </si>
+  <si>
+    <t>D1 15</t>
+  </si>
+  <si>
+    <t>D1 14</t>
+  </si>
+  <si>
+    <t>TO ALL EMPLOYEES
+WHO THE HELL STOLE MY CHAIR FROM MY OFFICE. REPLY NOW OR I WILL FIND YOU AND BREAK YOUR CHAIR!</t>
+  </si>
+  <si>
+    <t>From: BruceS@NBC.com
+BRING ME MY CHAIR BACK NOOOOOW</t>
+  </si>
+  <si>
+    <t>Uhh not me.</t>
+  </si>
+  <si>
+    <t>It was grace.</t>
+  </si>
+  <si>
+    <t>It was Ivan.</t>
+  </si>
+  <si>
+    <t>Just got word from a old place I worked at that they had to shut down the company due to a bunch of files being leaked. A bunch of people just lost there jobs due to some annoying person who decide to get there hands on files and leak them to the world. Goes to show you just how much of a danger these people are. Apparently some hacker from another company managed to get into their systems due to a tech manager opening a email and clicking a link that installed malware. From there they leaked everything to the company that hired them. We gotta be aware of stuff like this, we can’t be running into the same crap.</t>
+  </si>
+  <si>
+    <t>Agreed, the world is a scary place and we gotta keep vigilant.</t>
+  </si>
+  <si>
+    <t>Keep me posted on this, that’s something to watch over the next while.</t>
+  </si>
+  <si>
+    <t>Certainly interesting, we gotta keep our eyes peeled for stuff like this for sure.</t>
+  </si>
+  <si>
+    <t>g1</t>
   </si>
 </sst>
 </file>
@@ -625,9 +701,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -665,7 +741,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -771,7 +847,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -913,7 +989,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -921,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4422103-5E59-4D36-B01E-BBBBED35EAD4}">
-  <dimension ref="B4:Q20"/>
+  <dimension ref="B4:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="F15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,6 +1012,8 @@
     <col min="11" max="11" width="23.5703125" customWidth="1"/>
     <col min="12" max="12" width="48" customWidth="1"/>
     <col min="13" max="13" width="20.42578125" customWidth="1"/>
+    <col min="14" max="14" width="24.85546875" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
     <col min="16" max="16" width="8.85546875" customWidth="1"/>
     <col min="17" max="17" width="12.140625" customWidth="1"/>
   </cols>
@@ -1160,7 +1238,7 @@
         <v>93</v>
       </c>
       <c r="I9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J9" t="s">
         <v>65</v>
@@ -1510,7 +1588,7 @@
         <v>126</v>
       </c>
       <c r="P16" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="Q16" t="s">
         <v>65</v>
@@ -1522,7 +1600,7 @@
         <v>140</v>
       </c>
       <c r="I17" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="J17" t="s">
         <v>65</v>
@@ -1554,7 +1632,7 @@
         <v>141</v>
       </c>
       <c r="I18" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="J18" t="s">
         <v>65</v>
@@ -1581,11 +1659,249 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="P20" s="3"/>
+    <row r="19" spans="5:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="H19" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="P19" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="5:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="H20" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M20" t="s">
+        <v>152</v>
+      </c>
+      <c r="N20" t="s">
+        <v>153</v>
+      </c>
+      <c r="O20" t="s">
+        <v>154</v>
+      </c>
+      <c r="P20" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="5:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="H21" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M21" t="s">
+        <v>159</v>
+      </c>
+      <c r="N21" t="s">
+        <v>160</v>
+      </c>
+      <c r="O21" t="s">
+        <v>161</v>
+      </c>
+      <c r="P21" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="5:17" ht="195" x14ac:dyDescent="0.25">
+      <c r="H22" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M22" t="s">
+        <v>163</v>
+      </c>
+      <c r="N22" t="s">
+        <v>164</v>
+      </c>
+      <c r="O22" t="s">
+        <v>165</v>
+      </c>
+      <c r="P22" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="5:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="5:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="5:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" t="s">
+        <v>65</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="5:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="5:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="5:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H31:Q33">
@@ -1598,7 +1914,7 @@
       <formula>$H6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6:Q6 H6:J7 L6:L7 P7:Q18 H8:L14 H15:K18 M16:O16 M18:O18 H19:Q30">
+  <conditionalFormatting sqref="N6:Q6 H6:J7 L6:L7 H8:L14 M16:O16 M18:O18 H15:K18 H27:Q30 K23:Q26 K19:O19 H19:J26 K20:L22 P7:Q22">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>$H6&lt;&gt;""</formula>
     </cfRule>

--- a/Assets/Editor/EmailDataExample.xlsx
+++ b/Assets/Editor/EmailDataExample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDesign\Programming 3\Final Assignment\Gone Phish\GonePhishing\Assets\Editor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshy\Documents\GitHub\GonePhishing\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243B6D54-711D-4C1D-AD91-EA049A2CFB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2543DA67-5B1A-4EFC-B33E-3F24177BF081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A1DEF22-8015-43E6-8B07-6E12E7B783C7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{3A1DEF22-8015-43E6-8B07-6E12E7B783C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="185">
   <si>
     <t>Sender</t>
   </si>
@@ -237,10 +240,6 @@
 Bakery On The News?</t>
   </si>
   <si>
-    <t>From: Warning@CamGuard.com
-WARNING!!! - SOFTWARE COMPROMISED!</t>
-  </si>
-  <si>
     <t>From: Hiring@NRB.com
 Job Offer</t>
   </si>
@@ -298,10 +297,6 @@
 I would like to request all documents related to networking, and server credentials be handed to me through this email. This should be done as soon as you read this email without question.</t>
   </si>
   <si>
-    <t>From: RemoteAccessBruceS@NBO.com
-Need Access NOW!</t>
-  </si>
-  <si>
     <t>Ok, I’ll send them over soon.</t>
   </si>
   <si>
@@ -347,35 +342,22 @@
     <t>D1 5</t>
   </si>
   <si>
-    <t>Looping in everyone here, just got an email asking about a free gift card, can’t say I recall any raffles around here? Maybe I don’t go outside enough though, and one of you know about this?</t>
-  </si>
-  <si>
     <t>D1 6</t>
   </si>
   <si>
     <t>Can’t say I do, though I did just get an email asking for some employee info.</t>
   </si>
   <si>
-    <t>Nah, not sure about that one, Maybe Grace knows, she’s a real penny pincher.</t>
-  </si>
-  <si>
     <t>Jenelle might know, she does get around more than us.</t>
   </si>
   <si>
     <t>Before I clock out for the day, I’ve been checking the status on the cameras cause the system keeps flagging an unauthorized connection. Problem is, it won’t tell more details and I can’t do anything with out this dumb company we hired to send someone to come look at it so our contract doesn’t break. This is dumb as hell, and it’s just cause we wanted to save money. Just don’t relay on the cameras to capture everything for awhile.</t>
   </si>
   <si>
-    <t>Hmm, I’ll take a look tomorrow. Think I’ll send an email companywide as well.</t>
-  </si>
-  <si>
     <t>Gotcha, I’ll keep note of it. Probably going to send an email to everyone as well.</t>
   </si>
   <si>
     <t>Let me take a look then I’ll ask the contractor. Likely will send an email letting everyone know tom as well.</t>
-  </si>
-  <si>
-    <t>hi i need a new phone my one is freezing all the time. i download this app and it start laging my phone. it ask for login information too but i dont know what to put in can you help me please. also i got this email from you guys. it asked about a subscription but i dont remember a subscription. help me cancel it too please.
-grace</t>
   </si>
   <si>
     <t>Ok Grace, I’ll come by and take a look soon.</t>
@@ -426,9 +408,6 @@
     <t>Sounds good, let me know how it goes!</t>
   </si>
   <si>
-    <t>You’ve spent over 250,000 thousand dollars today. Are you sure this is you? We’ve locked your card, please contact us if this is you.</t>
-  </si>
-  <si>
     <t>I think one of our coworkers just fell for a phishing scam.</t>
   </si>
   <si>
@@ -438,16 +417,10 @@
     <t>This is not us, find someone else.</t>
   </si>
   <si>
-    <t>I am writing to you as we have on your files that a 100,000 car from Grotti was bought in your name and you have not paid any taxes for this. If this is not you then please respond.</t>
-  </si>
-  <si>
     <t>I think your files are wrong or messed up cause I never bought a car.</t>
   </si>
   <si>
     <t>Ask Bruce, looks like something he’d buy, not me.</t>
-  </si>
-  <si>
-    <t>Find someone else, I’m too broke for a Grotti</t>
   </si>
   <si>
     <t>D1 7</t>
@@ -518,10 +491,6 @@
     <t>D1 14</t>
   </si>
   <si>
-    <t>TO ALL EMPLOYEES
-WHO THE HELL STOLE MY CHAIR FROM MY OFFICE. REPLY NOW OR I WILL FIND YOU AND BREAK YOUR CHAIR!</t>
-  </si>
-  <si>
     <t>From: BruceS@NBC.com
 BRING ME MY CHAIR BACK NOOOOOW</t>
   </si>
@@ -548,6 +517,101 @@
   </si>
   <si>
     <t>g1</t>
+  </si>
+  <si>
+    <t>AI Phishing Assistant</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
+    <t>Hacker</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Jenelle</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>From: Ivan@NBC.com 
+Gift Card Scam?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hi dear, i need a new phone my one is freezing all the time. I download this app and it start lagging my phone. It asks for login information to but i dont know what to put in can you help me please. Also i got this email from you guys. It asked about a subscription but i dont remember a subscription. Help me cancel it too please. 
+-Grace</t>
+  </si>
+  <si>
+    <t>From: RemoteAccessBruceS@NBO.com_x000D_
+Need Access NOW!</t>
+  </si>
+  <si>
+    <t>From: Gully@NBC.com
+Sick PC Deal</t>
+  </si>
+  <si>
+    <t>Looping in everyone here, just got an email asking about a free gift card, can’t say I recall any raffles around here? Maybe I don’t go outside enough(or socialize) though, and one of you know about this?</t>
+  </si>
+  <si>
+    <t>Gully</t>
+  </si>
+  <si>
+    <t>From: Ivan@NBC.com 
+Mysterious Camera Connection</t>
+  </si>
+  <si>
+    <t>Hmm, I’ll take a look tomorrow.  Think I’ll send an email companywide as well.</t>
+  </si>
+  <si>
+    <t>D1 16</t>
+  </si>
+  <si>
+    <t>TO ALL EMPLOYEES 
+WHO THE HELL STOLE MY CHAIR FROM MY OFFICE. REPLY NOW OR I WILL FIND YOU AND BREAK YOUR CHAIR!</t>
+  </si>
+  <si>
+    <t>From: Jenelle@NBC.com
+Offer Code Legit?</t>
+  </si>
+  <si>
+    <t>Hi Admin, thanks for *finally* listening to me and my problems, I expect this error to go away soon right? Anyway, I'm emailing for a 48h offer code we got from these guys, called Baggy Baggutes. They seem legit but hard to know. Can you verify this for me? I did some digging but the spot seems local, unless the website was fake or something</t>
+  </si>
+  <si>
+    <t>From: Ivan@NBC.com
+Seedy World</t>
+  </si>
+  <si>
+    <t>No, not sure about that one, Maybe Grace knows, she’s a real penny pincher.</t>
+  </si>
+  <si>
+    <t>Find someone else, I’m too broke for a Grotti.</t>
+  </si>
+  <si>
+    <t>From: NovaBank@Notify.com 
+Urgent: Large Sum of Money Spent, Is This You?</t>
+  </si>
+  <si>
+    <t>You’ve spent over 250,000 thousand dollars today. Are you sure this is you? We’ve locked your card, please contact us if this is you. Otherwise we will call the police on you within 12h.</t>
+  </si>
+  <si>
+    <t>From: FinanceDept@NBR.com 
+Urgent: Why did you buy a car</t>
+  </si>
+  <si>
+    <t>I am writing to you as we have on your files that a 100,000 car from Grotti was bought in your name and you have not paid any taxes for this. Let us know ASAP if this is you, otherwise we will pursue legal action.</t>
+  </si>
+  <si>
+    <t>Just got an email from them, they're fake.</t>
+  </si>
+  <si>
+    <t>Think they're legit, should be good.</t>
+  </si>
+  <si>
+    <t>They're a fake company. Received an email earlier from them for something else. Keep vigilant on these guys, and maybe try digging deeper?</t>
   </si>
 </sst>
 </file>
@@ -701,9 +765,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -741,7 +805,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -847,7 +911,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -989,7 +1053,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -999,26 +1063,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4422103-5E59-4D36-B01E-BBBBED35EAD4}">
   <dimension ref="B4:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="71" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="8" max="10" width="14.5703125" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1"/>
+    <col min="2" max="4" width="13.59765625" customWidth="1"/>
+    <col min="5" max="5" width="17.59765625" customWidth="1"/>
+    <col min="6" max="6" width="17.3984375" customWidth="1"/>
+    <col min="8" max="10" width="14.59765625" customWidth="1"/>
+    <col min="11" max="11" width="23.59765625" customWidth="1"/>
     <col min="12" max="12" width="48" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" customWidth="1"/>
-    <col min="14" max="14" width="24.85546875" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="20.3984375" customWidth="1"/>
+    <col min="14" max="14" width="24.86328125" customWidth="1"/>
+    <col min="15" max="15" width="21.73046875" customWidth="1"/>
+    <col min="16" max="16" width="8.86328125" customWidth="1"/>
+    <col min="17" max="17" width="12.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +1094,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -1077,7 +1141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1094,29 +1158,29 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="M6" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>76</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>77</v>
       </c>
-      <c r="O6" t="s">
-        <v>78</v>
-      </c>
       <c r="P6" t="s">
         <v>65</v>
       </c>
@@ -1124,7 +1188,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1141,29 +1205,29 @@
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J7" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="K7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" t="s">
         <v>81</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>82</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>83</v>
       </c>
-      <c r="O7" t="s">
-        <v>84</v>
-      </c>
       <c r="P7" t="s">
         <v>65</v>
       </c>
@@ -1171,7 +1235,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -1188,28 +1252,28 @@
         <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>85</v>
+        <v>69</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="M8" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="O8" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="P8" t="s">
         <v>65</v>
@@ -1218,7 +1282,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="225" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" ht="128.25" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>51</v>
       </c>
@@ -1235,28 +1299,28 @@
         <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I9" t="s">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="J9" t="s">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="M9" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="P9" t="s">
         <v>65</v>
@@ -1265,7 +1329,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" ht="142.5" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>47</v>
       </c>
@@ -1282,28 +1346,28 @@
         <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="J10" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="M10" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="P10" t="s">
         <v>65</v>
@@ -1312,7 +1376,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -1329,28 +1393,28 @@
         <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J11" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="M11" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="O11" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="P11" t="s">
         <v>65</v>
@@ -1359,7 +1423,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="135" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -1376,28 +1440,28 @@
         <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="J12" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="M12" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="P12" t="s">
         <v>65</v>
@@ -1406,7 +1470,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -1423,28 +1487,28 @@
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="M13" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="N13" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="O13" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="P13" t="s">
         <v>65</v>
@@ -1453,7 +1517,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="135" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>62</v>
       </c>
@@ -1470,37 +1534,37 @@
         <v>56</v>
       </c>
       <c r="H14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>115</v>
+        <v>166</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="M14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P14" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="Q14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" ht="57" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>57</v>
       </c>
@@ -1517,28 +1581,28 @@
         <v>56</v>
       </c>
       <c r="H15" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J15" t="s">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="N15" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="O15" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="P15" t="s">
         <v>65</v>
@@ -1547,7 +1611,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" ht="199.5" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>6</v>
       </c>
@@ -1564,253 +1628,269 @@
         <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="I16" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="J16" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>123</v>
+        <v>67</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="M16" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="N16" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="O16" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="Q16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="5:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:17" ht="57" x14ac:dyDescent="0.45">
       <c r="E17" s="1"/>
       <c r="H17" t="s">
+        <v>131</v>
+      </c>
+      <c r="I17" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="M17" t="s">
+        <v>121</v>
+      </c>
+      <c r="N17" t="s">
+        <v>122</v>
+      </c>
+      <c r="O17" t="s">
+        <v>123</v>
+      </c>
+      <c r="P17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="5:17" ht="57" x14ac:dyDescent="0.45">
+      <c r="H18" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18" t="s">
+        <v>124</v>
+      </c>
+      <c r="N18" t="s">
+        <v>125</v>
+      </c>
+      <c r="O18" t="s">
+        <v>177</v>
+      </c>
+      <c r="P18" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="5:17" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="H19" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="I17" t="s">
-        <v>92</v>
-      </c>
-      <c r="J17" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="M17" t="s">
-        <v>128</v>
-      </c>
-      <c r="N17" t="s">
-        <v>129</v>
-      </c>
-      <c r="O17" t="s">
-        <v>130</v>
-      </c>
-      <c r="P17" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="5:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="H18" t="s">
+      <c r="L19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="5:17" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="H20" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I18" t="s">
-        <v>92</v>
-      </c>
-      <c r="J18" t="s">
-        <v>65</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M18" t="s">
-        <v>132</v>
-      </c>
-      <c r="N18" t="s">
-        <v>133</v>
-      </c>
-      <c r="O18" t="s">
-        <v>134</v>
-      </c>
-      <c r="P18" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="5:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="H19" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" t="s">
-        <v>65</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L19" s="3" t="s">
+      <c r="M20" t="s">
+        <v>143</v>
+      </c>
+      <c r="N20" t="s">
+        <v>144</v>
+      </c>
+      <c r="O20" t="s">
         <v>145</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="P20" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="5:17" ht="171" x14ac:dyDescent="0.45">
+      <c r="H21" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" t="s">
+        <v>160</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M21" t="s">
+        <v>153</v>
+      </c>
+      <c r="N21" t="s">
+        <v>154</v>
+      </c>
+      <c r="O21" t="s">
+        <v>155</v>
+      </c>
+      <c r="P21" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="5:17" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="H22" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="N19" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="P19" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="5:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="H20" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J20" t="s">
-        <v>65</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="M20" t="s">
-        <v>152</v>
-      </c>
-      <c r="N20" t="s">
-        <v>153</v>
-      </c>
-      <c r="O20" t="s">
-        <v>154</v>
-      </c>
-      <c r="P20" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="5:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="H21" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" t="s">
-        <v>65</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="M21" t="s">
-        <v>159</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="I22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="M22" t="s">
+        <v>182</v>
+      </c>
+      <c r="N22" t="s">
+        <v>184</v>
+      </c>
+      <c r="O22" t="s">
+        <v>183</v>
+      </c>
+      <c r="P22" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="5:17" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="H23" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" t="s">
         <v>160</v>
       </c>
-      <c r="O21" t="s">
-        <v>161</v>
-      </c>
-      <c r="P21" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="5:17" ht="195" x14ac:dyDescent="0.25">
-      <c r="H22" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J22" t="s">
-        <v>65</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="M22" t="s">
-        <v>163</v>
-      </c>
-      <c r="N22" t="s">
-        <v>164</v>
-      </c>
-      <c r="O22" t="s">
-        <v>165</v>
-      </c>
-      <c r="P22" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="5:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" t="s">
-        <v>65</v>
-      </c>
       <c r="K23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-    </row>
-    <row r="24" spans="5:17" ht="30" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="L23" t="s">
+        <v>103</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N23" t="s">
+        <v>104</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="P23" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="5:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" t="s">
         <v>65</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -1819,14 +1899,14 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="5:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" t="s">
         <v>65</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -1835,14 +1915,14 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="5:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" t="s">
         <v>65</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -1851,12 +1931,12 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="5:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -1865,12 +1945,12 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="5:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -1879,7 +1959,7 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:17" x14ac:dyDescent="0.45">
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -1891,7 +1971,7 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:17" x14ac:dyDescent="0.45">
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -1914,7 +1994,7 @@
       <formula>$H6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6:Q6 H6:J7 L6:L7 H8:L14 M16:O16 M18:O18 H15:K18 H27:Q30 K23:Q26 K19:O19 H19:J26 K20:L22 P7:Q22">
+  <conditionalFormatting sqref="N6:Q6 H6:J7 L6:L7 P7:Q22 M18:O18 K19:O19 H19:J26 K24:Q26 H27:Q30 H8:K8 H14:K18 K23 M23 O23 Q23 H9:L13 K16:L16 K20:L22 N16:O16">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>$H6&lt;&gt;""</formula>
     </cfRule>

--- a/Assets/Editor/EmailDataExample.xlsx
+++ b/Assets/Editor/EmailDataExample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joshy\Documents\GitHub\GonePhishing\Assets\Editor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDesign\Programming 3\Final Assignment\Gone Phish\GonePhishing\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2543DA67-5B1A-4EFC-B33E-3F24177BF081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9697734C-A269-49A0-831A-91AB6E4681D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{3A1DEF22-8015-43E6-8B07-6E12E7B783C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A1DEF22-8015-43E6-8B07-6E12E7B783C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -765,9 +762,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -805,7 +802,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -911,7 +908,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1053,7 +1050,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1063,26 +1060,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4422103-5E59-4D36-B01E-BBBBED35EAD4}">
   <dimension ref="B4:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="71" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="C17" zoomScale="71" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="13.59765625" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" customWidth="1"/>
-    <col min="6" max="6" width="17.3984375" customWidth="1"/>
-    <col min="8" max="10" width="14.59765625" customWidth="1"/>
-    <col min="11" max="11" width="23.59765625" customWidth="1"/>
+    <col min="2" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="8" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1"/>
     <col min="12" max="12" width="48" customWidth="1"/>
-    <col min="13" max="13" width="20.3984375" customWidth="1"/>
-    <col min="14" max="14" width="24.86328125" customWidth="1"/>
-    <col min="15" max="15" width="21.73046875" customWidth="1"/>
-    <col min="16" max="16" width="8.86328125" customWidth="1"/>
-    <col min="17" max="17" width="12.1328125" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" customWidth="1"/>
+    <col min="14" max="14" width="24.85546875" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1094,7 +1091,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -1141,7 +1138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:17" ht="90" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1188,7 +1185,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:17" ht="105" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1235,7 +1232,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:17" ht="120" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -1282,7 +1279,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:17" ht="135" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>51</v>
       </c>
@@ -1329,7 +1326,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:17" ht="165" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>47</v>
       </c>
@@ -1376,7 +1373,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:17" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -1423,7 +1420,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:17" ht="75" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -1470,7 +1467,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:17" ht="105" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -1517,7 +1514,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:17" ht="120" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>62</v>
       </c>
@@ -1564,7 +1561,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="57" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:17" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>57</v>
       </c>
@@ -1611,7 +1608,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:17" ht="225" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>6</v>
       </c>
@@ -1652,13 +1649,13 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="Q16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="5:17" ht="57" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:17" ht="75" x14ac:dyDescent="0.25">
       <c r="E17" s="1"/>
       <c r="H17" t="s">
         <v>131</v>
@@ -1691,7 +1688,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="5:17" ht="57" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:17" ht="75" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
         <v>132</v>
       </c>
@@ -1723,7 +1720,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="5:17" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:17" ht="45" x14ac:dyDescent="0.25">
       <c r="H19" s="3" t="s">
         <v>133</v>
       </c>
@@ -1755,7 +1752,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="5:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:17" ht="30" x14ac:dyDescent="0.25">
       <c r="H20" s="3" t="s">
         <v>134</v>
       </c>
@@ -1787,7 +1784,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="5:17" ht="171" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:17" ht="195" x14ac:dyDescent="0.25">
       <c r="H21" s="3" t="s">
         <v>147</v>
       </c>
@@ -1819,7 +1816,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="5:17" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:17" ht="105" x14ac:dyDescent="0.25">
       <c r="H22" s="3" t="s">
         <v>146</v>
       </c>
@@ -1851,7 +1848,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="5:17" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:17" ht="135" x14ac:dyDescent="0.25">
       <c r="H23" s="3" t="s">
         <v>171</v>
       </c>
@@ -1864,7 +1861,7 @@
       <c r="K23" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="3" t="s">
         <v>103</v>
       </c>
       <c r="M23" s="3" t="s">
@@ -1883,7 +1880,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="5:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="5:17" ht="30" x14ac:dyDescent="0.25">
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" t="s">
@@ -1899,7 +1896,7 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="5:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:17" ht="30" x14ac:dyDescent="0.25">
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" t="s">
@@ -1915,7 +1912,7 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="5:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="5:17" ht="30" x14ac:dyDescent="0.25">
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" t="s">
@@ -1931,7 +1928,7 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="5:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="5:17" ht="30" x14ac:dyDescent="0.25">
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -1945,7 +1942,7 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="5:17" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="5:17" ht="30" x14ac:dyDescent="0.25">
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -1959,7 +1956,7 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="5:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="5:17" x14ac:dyDescent="0.25">
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -1971,7 +1968,7 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="5:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="5:17" x14ac:dyDescent="0.25">
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -1994,7 +1991,7 @@
       <formula>$H6&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6:Q6 H6:J7 L6:L7 P7:Q22 M18:O18 K19:O19 H19:J26 K24:Q26 H27:Q30 H8:K8 H14:K18 K23 M23 O23 Q23 H9:L13 K16:L16 K20:L22 N16:O16">
+  <conditionalFormatting sqref="N6:Q6 H6:J7 L6:L7 P7:Q22 H8:K8 H9:L13 H14:K18 K16:L16 N16:O16 M18:O18 K19:O19 H19:J26 K20:L22 K23 M23 O23 Q23 K24:Q26 H27:Q30">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>$H6&lt;&gt;""</formula>
     </cfRule>
